--- a/Analysis/_TEMPLATE-ISSUES.xlsx
+++ b/Analysis/_TEMPLATE-ISSUES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383E144D-43BE-4B0A-A1BE-FEAB9A8EF6F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1647C625-F94C-4EE3-9F4A-9EFABFA5B527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26295" yWindow="5850" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Issue</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Other Type</t>
+  </si>
+  <si>
+    <t>Refactoring(0/1)</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62907D4F-821C-42A5-BB97-2A16C8296F6E}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +447,7 @@
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,9 +482,12 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Analysis/_TEMPLATE-ISSUES.xlsx
+++ b/Analysis/_TEMPLATE-ISSUES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1647C625-F94C-4EE3-9F4A-9EFABFA5B527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66778DF0-A6D8-44F5-8EBB-4A2D31DCD27C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Issue</t>
   </si>
@@ -56,25 +56,13 @@
     <t>Documentation(0/1)</t>
   </si>
   <si>
-    <t>Algorithmics(0/1)</t>
-  </si>
-  <si>
-    <t>Crytography / Security(0/1)</t>
-  </si>
-  <si>
-    <t>Optimization(0/1)</t>
-  </si>
-  <si>
-    <t>Graphics(0/1)</t>
-  </si>
-  <si>
-    <t>Other(0/1)</t>
-  </si>
-  <si>
-    <t>Other Type</t>
-  </si>
-  <si>
-    <t>Refactoring(0/1)</t>
+    <t>Other Information</t>
+  </si>
+  <si>
+    <t>Refactoring (0/1)</t>
+  </si>
+  <si>
+    <t>Testing (0/1)</t>
   </si>
 </sst>
 </file>
@@ -426,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62907D4F-821C-42A5-BB97-2A16C8296F6E}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,17 +425,17 @@
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="56.85546875" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,25 +458,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/_TEMPLATE-ISSUES.xlsx
+++ b/Analysis/_TEMPLATE-ISSUES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66778DF0-A6D8-44F5-8EBB-4A2D31DCD27C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B443CEDD-B2C1-4CCF-946D-FF3C96127F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Issue</t>
   </si>
   <si>
-    <t>Associated Commit</t>
-  </si>
-  <si>
     <t>Taken by New Developer? (0/1)</t>
   </si>
   <si>
@@ -63,6 +60,12 @@
   </si>
   <si>
     <t>Testing (0/1)</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Associated PR</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62907D4F-821C-42A5-BB97-2A16C8296F6E}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,36 +438,39 @@
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/_TEMPLATE-ISSUES.xlsx
+++ b/Analysis/_TEMPLATE-ISSUES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B443CEDD-B2C1-4CCF-946D-FF3C96127F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8856E13B-DC16-4524-8CDF-492C975E122E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
+    <workbookView xWindow="31950" yWindow="2010" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62907D4F-821C-42A5-BB97-2A16C8296F6E}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,5 +475,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analysis/_TEMPLATE-ISSUES.xlsx
+++ b/Analysis/_TEMPLATE-ISSUES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8856E13B-DC16-4524-8CDF-492C975E122E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F453CEF4-7D75-40C8-9CF6-84FB2BB4CFAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31950" yWindow="2010" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
+    <workbookView xWindow="4245" yWindow="4245" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +434,7 @@
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="56.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Analysis/_TEMPLATE-ISSUES.xlsx
+++ b/Analysis/_TEMPLATE-ISSUES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F453CEF4-7D75-40C8-9CF6-84FB2BB4CFAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC0409A-6CA3-4B62-BF65-B2158DF45007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analysis/_TEMPLATE-ISSUES.xlsx
+++ b/Analysis/_TEMPLATE-ISSUES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC0409A-6CA3-4B62-BF65-B2158DF45007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E114E3-A648-4CDC-AE0B-338F22E33808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
+    <workbookView xWindow="5280" yWindow="5280" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analysis/_TEMPLATE-ISSUES.xlsx
+++ b/Analysis/_TEMPLATE-ISSUES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Git Repositories\Good-First-Issue\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E114E3-A648-4CDC-AE0B-338F22E33808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57167EC6-05A4-4CF6-BBE5-E4267EDCC76B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="5280" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="38700" windowHeight="15435" xr2:uid="{BE161B33-A94A-4E68-B9E5-07DB50A2B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
